--- a/data/trans_dic/P02E$nadie-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,83; 92,0</t>
+          <t>80,21; 92,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,64; 95,5</t>
+          <t>86,94; 95,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,37; 91,83</t>
+          <t>81,93; 92,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 93,27</t>
+          <t>84,55; 93,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,07; 92,63</t>
+          <t>85,75; 92,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,65; 93,89</t>
+          <t>84,9; 93,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,02; 91,63</t>
+          <t>84,84; 91,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,58; 92,82</t>
+          <t>87,33; 92,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,57; 91,96</t>
+          <t>85,28; 91,8</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,39; 94,5</t>
+          <t>86,01; 94,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,29; 95,57</t>
+          <t>89,71; 95,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,55; 97,09</t>
+          <t>91,48; 97,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,32; 93,95</t>
+          <t>87,27; 93,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,58; 94,01</t>
+          <t>88,47; 93,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,92; 91,77</t>
+          <t>84,55; 91,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,13; 93,37</t>
+          <t>88,19; 93,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,23; 94,06</t>
+          <t>90,07; 93,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,5; 93,19</t>
+          <t>88,29; 93,15</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,64; 94,56</t>
+          <t>83,21; 94,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,87; 95,31</t>
+          <t>87,62; 95,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,49; 95,35</t>
+          <t>86,85; 95,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,79; 94,28</t>
+          <t>85,72; 93,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,3</t>
+          <t>91,07; 96,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,32; 92,1</t>
+          <t>84,14; 92,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,49; 93,16</t>
+          <t>86,33; 92,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,73; 95,2</t>
+          <t>90,75; 95,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,69; 92,73</t>
+          <t>86,93; 92,92</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 94,13</t>
+          <t>84,71; 93,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,04; 92,14</t>
+          <t>84,06; 92,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,99; 93,89</t>
+          <t>84,98; 93,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,68; 97,2</t>
+          <t>91,01; 97,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 94,03</t>
+          <t>88,04; 93,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,28; 87,92</t>
+          <t>79,01; 88,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,33; 95,19</t>
+          <t>90,69; 95,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,57; 92,42</t>
+          <t>87,55; 92,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,23; 89,42</t>
+          <t>82,77; 89,24</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,02</t>
+          <t>87,2; 92,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,47; 93,16</t>
+          <t>89,52; 93,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,27</t>
+          <t>89,27; 93,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,35</t>
+          <t>89,69; 93,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,92</t>
+          <t>90,06; 93,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,51; 89,55</t>
+          <t>85,53; 89,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,36; 92,31</t>
+          <t>89,37; 92,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,32; 92,62</t>
+          <t>90,37; 92,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,63; 90,59</t>
+          <t>87,71; 90,44</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que no tienen ayuda al cuidado por parte de una persona externa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>114268</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>182592</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>140193</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>197033</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>266932</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>177738</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>311302</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>449524</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>317931</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105251; 121124</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>172815; 189275</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>131405; 147665</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>185980; 205250</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>255872; 276777</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>167098; 184852</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>297948; 323075</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>434169; 461638</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>304618; 327903</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>179191</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>282983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>225315</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>278492</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>419181</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>317523</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>457681</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>702164</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>542837</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>169322; 186432</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>272437; 290195</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>217548; 231295</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>267116; 287583</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>405078; 430137</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>302817; 328485</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>443531; 469823</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>685913; 715383</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>526162; 555125</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>114723</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>203229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>151112</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>178767</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>334074</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>225177</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>293490</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>537303</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>376288</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>106287; 120575</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>193381; 210199</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>142443; 156887</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>169365; 185616</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>322948; 341124</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>213584; 234084</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>280847; 302364</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>522105; 548129</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>363232; 388259</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>153698</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>231784</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>175031</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>267758</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>369928</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>253845</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>421455</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>601712</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>428877</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>144331; 159104</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>219944; 241333</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>165237; 182158</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>256815; 274076</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>357439; 379966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>238752; 266873</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>410402; 431831</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>584567; 615308</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>411043; 443224</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>561879</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>900587</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>691650</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>922050</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1390114</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>974281</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1483929</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2290701</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1665932</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>546033; 577409</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>881615; 916099</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>675488; 705880</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>902148; 938991</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1366090; 1411974</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>950221; 995994</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1458464; 1506307</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2260750; 2318630</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1638097; 1689040</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>